--- a/outputs/4_output.xlsx
+++ b/outputs/4_output.xlsx
@@ -693,7 +693,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
@@ -879,28 +879,32 @@
       </c>
       <c r="C8" s="29" t="inlineStr">
         <is>
-          <t>MLK_PMT_10102_-_V-002</t>
-        </is>
-      </c>
-      <c r="D8" s="29" t="inlineStr"/>
+          <t>MLK_PMT_10102_-_V-002_1</t>
+        </is>
+      </c>
+      <c r="D8" s="29" t="inlineStr">
+        <is>
+          <t>Expansion Tank</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Shell Plate</t>
+          <t>Tube Bundle</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>DM50</t>
+          <t>DMSO</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Stainless Steel</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>SA-240M</t>
+          <t>SA-240</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -920,7 +924,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>1.1 BarG</t>
+          <t>1.1 Bar G</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -930,29 +934,29 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1.0 BarG</t>
+          <t>1.0 Bar G</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="E9" t="inlineStr">
         <is>
-          <t>Dish Head</t>
+          <t>Dish Head (Top) (6mm, 2:1 Type)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>DM50</t>
+          <t>DMSO</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Stainless Steel</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>SA-240M</t>
+          <t>SA-240</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -972,7 +976,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>1.1 BarG</t>
+          <t>1.1 Bar G</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -982,29 +986,29 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1.0 BarG</t>
+          <t>1.0 Bar G</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="E10" t="inlineStr">
         <is>
-          <t>Seamless Pipe (DN50)</t>
+          <t>Dish Head (Bottom) (6mm, 2:1 Type)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>DM50</t>
+          <t>DMSO</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Stainless Steel</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>SA-312M TP</t>
+          <t>SA-240</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1024,7 +1028,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>1.1 BarG</t>
+          <t>1.1 Bar G</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1034,34 +1038,34 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1.0 BarG</t>
+          <t>1.0 Bar G</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="E11" t="inlineStr">
         <is>
-          <t>Seamless Pipe (DN25)</t>
+          <t>Seamless Pipe DN50 x 67 SCH 40s</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>DM50</t>
+          <t>DMSO</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Stainless Steel</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>SA-312M TP</t>
+          <t>SA-312</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>316L</t>
+          <t>TP 316L</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1076,7 +1080,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>1.1 BarG</t>
+          <t>1.1 Bar G</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1086,34 +1090,34 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1.0 BarG</t>
+          <t>1.0 Bar G</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="inlineStr">
         <is>
-          <t>Seamless Pipe (DN150)</t>
+          <t>Seamless Pipe DN25 x 100 SCH 40s</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>DM50</t>
+          <t>DMSO</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Stainless Steel</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>SA-312M TP</t>
+          <t>SA-312</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>316L</t>
+          <t>TP 316L</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1128,7 +1132,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>1.1 BarG</t>
+          <t>1.1 Bar G</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1138,34 +1142,34 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1.0 BarG</t>
+          <t>1.0 Bar G</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="E13" t="inlineStr">
         <is>
-          <t>Flange DN50 Class 150 WNRF</t>
+          <t>Seamless Pipe DN150 x 112 SCH 40s</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>DM50</t>
+          <t>DMSO</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Stainless Steel</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>SA-182M</t>
+          <t>SA-312</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>F316L</t>
+          <t>TP 316L</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1180,7 +1184,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>1.1 BarG</t>
+          <t>1.1 Bar G</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1190,29 +1194,29 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1.0 BarG</t>
+          <t>1.0 Bar G</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="E14" t="inlineStr">
         <is>
-          <t>Flange DN25 Class 150 WNRF</t>
+          <t>Flange DN50 Class 150 WNRF SCH 40s</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>DM50</t>
+          <t>DMSO</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Stainless Steel</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>SA-182M</t>
+          <t>SA-182</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1232,7 +1236,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>1.1 BarG</t>
+          <t>1.1 Bar G</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1242,29 +1246,29 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>1.0 BarG</t>
+          <t>1.0 Bar G</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="E15" t="inlineStr">
         <is>
-          <t>Flange DN150 Class 150 WNRF</t>
+          <t>Flange DN25 Class 150 WNRF SCH 40s</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>DM50</t>
+          <t>DMSO</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Stainless Steel</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>SA-182M</t>
+          <t>SA-182</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1284,7 +1288,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>1.1 BarG</t>
+          <t>1.1 Bar G</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1294,34 +1298,34 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>1.0 BarG</t>
+          <t>1.0 Bar G</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="E16" t="inlineStr">
         <is>
-          <t>Base Plate</t>
+          <t>Flange DN150 Class 150 WNRF SCH 40s</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>DM50</t>
+          <t>DMSO</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Stainless Steel</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>SA-240M</t>
+          <t>SA-182</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>316L</t>
+          <t>F316L</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1336,7 +1340,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>1.1 BarG</t>
+          <t>1.1 Bar G</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1346,34 +1350,34 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>1.0 BarG</t>
+          <t>1.0 Bar G</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="E17" t="inlineStr">
         <is>
-          <t>Lifting Lug Plate</t>
+          <t>Base Plate (150 x 150 x 5mm Thk)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>DM50</t>
+          <t>DMSO</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Stainless Steel</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>SA-240M</t>
+          <t>SA-240</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>316L</t>
+          <t>Gr. 304</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1388,7 +1392,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>1.1 BarG</t>
+          <t>1.1 Bar G</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1398,34 +1402,34 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>1.0 BarG</t>
+          <t>1.0 Bar G</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="E18" t="inlineStr">
         <is>
-          <t>Doubler Plate</t>
+          <t>Lifting Lug Plate (190 x 80 x 6mm Thk)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>DM50</t>
+          <t>DMSO</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Stainless Steel</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>SA-240M</t>
+          <t>SA-240</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>Gr. 304</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1440,7 +1444,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>1.1 BarG</t>
+          <t>1.1 Bar G</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1450,34 +1454,34 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>1.0 BarG</t>
+          <t>1.0 Bar G</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="E19" t="inlineStr">
         <is>
-          <t>Equal Angle Bar</t>
+          <t>Doubler Plate (120 x 150 x 12.7mm Thk)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>DM50</t>
+          <t>DMSO</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Stainless Steel</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>SA-240M</t>
+          <t>SA-240</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>Gr. 304</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1492,7 +1496,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>1.1 BarG</t>
+          <t>1.1 Bar G</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1502,80 +1506,132 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>1.0 BarG</t>
+          <t>1.0 Bar G</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="E20" t="inlineStr">
         <is>
+          <t>Equal Angle Bar (3" x 3" x 1/4" Thk)</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>DMSO</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>SA-240</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Gr. 304</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>100 °C</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>1.1 Bar G</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>100 °C</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>1.0 Bar G</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="E21" t="inlineStr">
+        <is>
           <t>Earthing Lug</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>DM50</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>SA-240M</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>304</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>DMSO</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>SA-240</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Gr. 304</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>100 °C</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>1.1 BarG</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>100 °C</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>1.0 BarG</t>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>100 °C</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>1.1 Bar G</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>100 °C</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>1.0 Bar G</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A8:A21"/>
     <mergeCell ref="D5:D7"/>
+    <mergeCell ref="C8:C21"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="H5:J6"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="G5:G7"/>
+    <mergeCell ref="D8:D21"/>
     <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B20"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="D3:D4"/>
-    <mergeCell ref="A8:A20"/>
-    <mergeCell ref="C8:C20"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="E5:E7"/>
     <mergeCell ref="K5:K7"/>
     <mergeCell ref="F5:F7"/>
-    <mergeCell ref="D8:D20"/>
+    <mergeCell ref="B8:B21"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="L5:M6"/>
     <mergeCell ref="N5:O6"/>

--- a/outputs/4_output.xlsx
+++ b/outputs/4_output.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -353,7 +353,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>11</col>
@@ -368,21 +368,21 @@
         <cNvPicPr preferRelativeResize="0"/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="7513320" y="137160"/>
           <a:ext cx="2095500" cy="523875"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -693,7 +693,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
@@ -879,37 +879,37 @@
       </c>
       <c r="C8" s="29" t="inlineStr">
         <is>
-          <t>MLK_PMT_10102_-_V-002_1</t>
+          <t>MLK_PMT_10107_-_H-001</t>
         </is>
       </c>
       <c r="D8" s="29" t="inlineStr">
         <is>
-          <t>Expansion Tank</t>
+          <t>Cooling of Water on Irrigation of An Absorber</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Tube Bundle</t>
+          <t>Shell</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>DMSO</t>
+          <t>METHANOL (SHELL) / WATER (TUBE)</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Stainless Steel</t>
+          <t>Carbon Steel</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>SA-240</t>
+          <t>SA-516</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>316L</t>
+          <t>Gr. 70</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -919,49 +919,49 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>100 °C</t>
+          <t>200 DEG. C</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>1.1 Bar G</t>
+          <t>14.00 kg/cm2 (g)</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>100 °C</t>
+          <t>150 DEG. C</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1.0 Bar G</t>
+          <t>10.00 kg/cm2 (g)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="E9" t="inlineStr">
         <is>
-          <t>Dish Head (Top) (6mm, 2:1 Type)</t>
+          <t>Shell Cover (FLANGE)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>DMSO</t>
+          <t>METHANOL (SHELL) / WATER (TUBE)</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Stainless Steel</t>
+          <t>Carbon Steel</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>SA-240</t>
+          <t>SA-516</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>316L</t>
+          <t>Gr. 70</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -971,49 +971,49 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>100 °C</t>
+          <t>200 DEG. C</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>1.1 Bar G</t>
+          <t>14.00 kg/cm2 (g)</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>100 °C</t>
+          <t>150 DEG. C</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1.0 Bar G</t>
+          <t>10.00 kg/cm2 (g)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="E10" t="inlineStr">
         <is>
-          <t>Dish Head (Bottom) (6mm, 2:1 Type)</t>
+          <t>Tubesheet</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>DMSO</t>
+          <t>METHANOL (SHELL) / WATER (TUBE)</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Stainless Steel</t>
+          <t>Carbon Steel</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>SA-240</t>
+          <t>SA-516</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>316L</t>
+          <t>Gr. 70</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1023,49 +1023,49 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>100 °C</t>
+          <t>200 DEG. C</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>1.1 Bar G</t>
+          <t>14.00 kg/cm2 (g)</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>100 °C</t>
+          <t>150 DEG. C</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1.0 Bar G</t>
+          <t>10.00 kg/cm2 (g)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="E11" t="inlineStr">
         <is>
-          <t>Seamless Pipe DN50 x 67 SCH 40s</t>
+          <t>Head</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>DMSO</t>
+          <t>METHANOL (SHELL) / WATER (TUBE)</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Stainless Steel</t>
+          <t>Carbon Steel</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>SA-312</t>
+          <t>SA-516</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>TP 316L</t>
+          <t>Gr. 70</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1075,49 +1075,44 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>100 °C</t>
+          <t>200 DEG. C</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>1.1 Bar G</t>
+          <t>14.00 kg/cm2 (g)</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>100 °C</t>
+          <t>150 DEG. C</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1.0 Bar G</t>
+          <t>10.00 kg/cm2 (g)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="inlineStr">
         <is>
-          <t>Seamless Pipe DN25 x 100 SCH 40s</t>
+          <t>Tube</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>DMSO</t>
+          <t>METHANOL (SHELL) / WATER (TUBE)</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Stainless Steel</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>SA-312</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>TP 316L</t>
+          <t>SA-179</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1127,49 +1122,49 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>100 °C</t>
+          <t>200 DEG. C</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>1.1 Bar G</t>
+          <t>14.00 kg/cm2 (g)</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>100 °C</t>
+          <t>150 DEG. C</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1.0 Bar G</t>
+          <t>10.00 kg/cm2 (g)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="E13" t="inlineStr">
         <is>
-          <t>Seamless Pipe DN150 x 112 SCH 40s</t>
+          <t>Tie Rods</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>DMSO</t>
+          <t>METHANOL (SHELL) / WATER (TUBE)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Stainless Steel</t>
+          <t>Carbon Steel</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>SA-312</t>
+          <t>SA-106</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>TP 316L</t>
+          <t>Gr. B</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1179,49 +1174,49 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>100 °C</t>
+          <t>200 DEG. C</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>1.1 Bar G</t>
+          <t>14.00 kg/cm2 (g)</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>100 °C</t>
+          <t>150 DEG. C</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1.0 Bar G</t>
+          <t>10.00 kg/cm2 (g)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="E14" t="inlineStr">
         <is>
-          <t>Flange DN50 Class 150 WNRF SCH 40s</t>
+          <t>Baffle/Support Plate</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>DMSO</t>
+          <t>METHANOL (SHELL) / WATER (TUBE)</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Stainless Steel</t>
+          <t>Carbon Steel</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>SA-182</t>
+          <t>SA-516</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>F316L</t>
+          <t>Gr. 70</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1231,49 +1226,49 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>100 °C</t>
+          <t>200 DEG. C</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>1.1 Bar G</t>
+          <t>14.00 kg/cm2 (g)</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>100 °C</t>
+          <t>150 DEG. C</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>1.0 Bar G</t>
+          <t>10.00 kg/cm2 (g)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="E15" t="inlineStr">
         <is>
-          <t>Flange DN25 Class 150 WNRF SCH 40s</t>
+          <t>Nozzle</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>DMSO</t>
+          <t>METHANOL (SHELL) / WATER (TUBE)</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Stainless Steel</t>
+          <t>Carbon Steel</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>SA-182</t>
+          <t>SA-106</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>F316L</t>
+          <t>Gr. B</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1283,49 +1278,49 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>100 °C</t>
+          <t>200 DEG. C</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>1.1 Bar G</t>
+          <t>14.00 kg/cm2 (g)</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>100 °C</t>
+          <t>150 DEG. C</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>1.0 Bar G</t>
+          <t>10.00 kg/cm2 (g)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="E16" t="inlineStr">
         <is>
-          <t>Flange DN150 Class 150 WNRF SCH 40s</t>
+          <t>Saddle</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>DMSO</t>
+          <t>METHANOL (SHELL) / WATER (TUBE)</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Stainless Steel</t>
+          <t>Carbon Steel</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>SA-182</t>
+          <t>SA-516</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>F316L</t>
+          <t>Gr. 70</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1335,49 +1330,49 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>100 °C</t>
+          <t>200 DEG. C</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>1.1 Bar G</t>
+          <t>14.00 kg/cm2 (g)</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>100 °C</t>
+          <t>150 DEG. C</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>1.0 Bar G</t>
+          <t>10.00 kg/cm2 (g)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="E17" t="inlineStr">
         <is>
-          <t>Base Plate (150 x 150 x 5mm Thk)</t>
+          <t>Stiffening Rib</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>DMSO</t>
+          <t>METHANOL (SHELL) / WATER (TUBE)</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Stainless Steel</t>
+          <t>Carbon Steel</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>SA-240</t>
+          <t>SA-516</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Gr. 304</t>
+          <t>Gr. 70</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1387,49 +1382,49 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>100 °C</t>
+          <t>200 DEG. C</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>1.1 Bar G</t>
+          <t>14.00 kg/cm2 (g)</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>100 °C</t>
+          <t>150 DEG. C</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>1.0 Bar G</t>
+          <t>10.00 kg/cm2 (g)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="E18" t="inlineStr">
         <is>
-          <t>Lifting Lug Plate (190 x 80 x 6mm Thk)</t>
+          <t>Stiffening Ring</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>DMSO</t>
+          <t>METHANOL (SHELL) / WATER (TUBE)</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Stainless Steel</t>
+          <t>Carbon Steel</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>SA-240</t>
+          <t>SA-516</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Gr. 304</t>
+          <t>Gr. 70</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1439,49 +1434,49 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>100 °C</t>
+          <t>200 DEG. C</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>1.1 Bar G</t>
+          <t>14.00 kg/cm2 (g)</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>100 °C</t>
+          <t>150 DEG. C</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>1.0 Bar G</t>
+          <t>10.00 kg/cm2 (g)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="E19" t="inlineStr">
         <is>
-          <t>Doubler Plate (120 x 150 x 12.7mm Thk)</t>
+          <t>Lifting Lug</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>DMSO</t>
+          <t>METHANOL (SHELL) / WATER (TUBE)</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Stainless Steel</t>
+          <t>Carbon Steel</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>SA-240</t>
+          <t>SA-516</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Gr. 304</t>
+          <t>Gr. 70</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1491,49 +1486,49 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>100 °C</t>
+          <t>200 DEG. C</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>1.1 Bar G</t>
+          <t>14.00 kg/cm2 (g)</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>100 °C</t>
+          <t>150 DEG. C</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>1.0 Bar G</t>
+          <t>10.00 kg/cm2 (g)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="E20" t="inlineStr">
         <is>
-          <t>Equal Angle Bar (3" x 3" x 1/4" Thk)</t>
+          <t>Base Plate</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>DMSO</t>
+          <t>METHANOL (SHELL) / WATER (TUBE)</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Stainless Steel</t>
+          <t>Carbon Steel</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>SA-240</t>
+          <t>SA-516</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Gr. 304</t>
+          <t>Gr. 70</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1543,49 +1538,49 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>100 °C</t>
+          <t>200 DEG. C</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>1.1 Bar G</t>
+          <t>14.00 kg/cm2 (g)</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>100 °C</t>
+          <t>150 DEG. C</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>1.0 Bar G</t>
+          <t>10.00 kg/cm2 (g)</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="E21" t="inlineStr">
         <is>
-          <t>Earthing Lug</t>
+          <t>Anchor Bolt</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>DMSO</t>
+          <t>METHANOL (SHELL) / WATER (TUBE)</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Stainless Steel</t>
+          <t>Stainless Steel Bolting</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>SA-240</t>
+          <t>SA-193</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Gr. 304</t>
+          <t>Gr. B7</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1595,43 +1590,444 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>100 °C</t>
+          <t>200 DEG. C</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>1.1 Bar G</t>
+          <t>14.00 kg/cm2 (g)</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>100 °C</t>
+          <t>150 DEG. C</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>1.0 Bar G</t>
+          <t>10.00 kg/cm2 (g)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Hex. Nut</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>METHANOL (SHELL) / WATER (TUBE)</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Heavy Hex Nuts</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>SA-194</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Gr. 2H</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>200 DEG. C</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>14.00 kg/cm2 (g)</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>150 DEG. C</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>10.00 kg/cm2 (g)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Washer</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>METHANOL (SHELL) / WATER (TUBE)</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>SA-36</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>200 DEG. C</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>14.00 kg/cm2 (g)</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>150 DEG. C</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>10.00 kg/cm2 (g)</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Name Plate</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>METHANOL (SHELL) / WATER (TUBE)</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>SS-316</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>200 DEG. C</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>14.00 kg/cm2 (g)</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>150 DEG. C</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>10.00 kg/cm2 (g)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Stud Bolt for Flange</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>METHANOL (SHELL) / WATER (TUBE)</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Stainless Steel Bolting</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>SA-193</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Gr. B7</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>200 DEG. C</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>14.00 kg/cm2 (g)</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>150 DEG. C</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>10.00 kg/cm2 (g)</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Hex. Nut for Flange</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>METHANOL (SHELL) / WATER (TUBE)</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Heavy Hex Nuts</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>SA-194</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Gr. 2H</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>200 DEG. C</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>14.00 kg/cm2 (g)</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>150 DEG. C</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>10.00 kg/cm2 (g)</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Gasket</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>METHANOL (SHELL) / WATER (TUBE)</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Non Asbestos</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>200 DEG. C</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>14.00 kg/cm2 (g)</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>150 DEG. C</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>10.00 kg/cm2 (g)</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Vent / Drain</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>METHANOL (SHELL) / WATER (TUBE)</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Carbon Steel</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>SA-106</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Gr. B</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>200 DEG. C</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>14.00 kg/cm2 (g)</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>150 DEG. C</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>10.00 kg/cm2 (g)</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Tube Support</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>METHANOL (SHELL) / WATER (TUBE)</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Carbon Steel</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>SA-516</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Gr. 70</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>200 DEG. C</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>14.00 kg/cm2 (g)</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>150 DEG. C</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>10.00 kg/cm2 (g)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A8:A21"/>
     <mergeCell ref="D5:D7"/>
-    <mergeCell ref="C8:C21"/>
     <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B8:B29"/>
     <mergeCell ref="H5:J6"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="G5:G7"/>
-    <mergeCell ref="D8:D21"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C8:C29"/>
     <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D8:D29"/>
+    <mergeCell ref="A8:A29"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="E5:E7"/>
     <mergeCell ref="K5:K7"/>
     <mergeCell ref="F5:F7"/>
-    <mergeCell ref="B8:B21"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="L5:M6"/>
     <mergeCell ref="N5:O6"/>
